--- a/xlsx/行政公署_intext.xlsx
+++ b/xlsx/行政公署_intext.xlsx
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81_(%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83)</t>
   </si>
   <si>
-    <t>省 (行政區劃)</t>
+    <t>省 (行政区划)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BE%96%E5%B8%82</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%82%B3%E7%B5%B1%E5%9C%B0%E7%90%86%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>中國傳統地理大區</t>
+    <t>中国传统地理大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%AD%E5%BF%83%E5%9F%8E%E5%B8%82</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83%E6%B2%BF%E9%9D%A9</t>
   </si>
   <si>
-    <t>中華民國大陸時期行政區劃沿革</t>
+    <t>中华民国大陆时期行政区划沿革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Division_levels_of_China</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%9D%A3%E5%AF%9F%E5%8D%80</t>
   </si>
   <si>
-    <t>行政督察區</t>
+    <t>行政督察区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B4%8B%E6%94%BF%E5%BA%9C</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B%E7%B4%80%E5%B9%B4</t>
   </si>
   <si>
-    <t>民國紀年</t>
+    <t>民国纪年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E5%8C%97%E4%BC%90</t>
   </si>
   <si>
-    <t>國民政府北伐</t>
+    <t>国民政府北伐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93</t>
